--- a/Kurs/Лист Microsoft Excel.xlsx
+++ b/Kurs/Лист Microsoft Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,21 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,15 +34,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -42,25 +92,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +399,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +644,649 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>5</v>
+      </c>
+      <c r="H19" s="15">
+        <v>6</v>
+      </c>
+      <c r="I19" s="15">
+        <v>7</v>
+      </c>
+      <c r="J19" s="15">
+        <v>8</v>
+      </c>
+      <c r="K19" s="15">
+        <v>9</v>
+      </c>
+      <c r="L19" s="16">
+        <v>10</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>3</v>
+      </c>
+      <c r="R24" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="8">
+        <v>5</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="24">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="P26" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25">
+        <v>2</v>
+      </c>
+      <c r="P27" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>2</v>
+      </c>
+      <c r="R27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>2</v>
+      </c>
+      <c r="R28" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28">
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
+        <v>5</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
